--- a/TrainingData.xlsx
+++ b/TrainingData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\中央\博士班\課程\博士班二年級上學期\AI課程助教\HW1\同學繳交作業\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrrr0\Downloads\ai\ai_course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F43D3-5172-49FC-A5D0-8428C9F35A4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6165906-C241-469C-9A94-9439F979E4C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="training" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9299" uniqueCount="4404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9303" uniqueCount="4410">
   <si>
     <t>id</t>
   </si>
@@ -41111,6 +41111,30 @@
   </si>
   <si>
     <t>1079138132448519</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大學(18歲~22歲), 壯年(24-39歲), 中年(40-64歲)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 1 4 5 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 3 4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -41510,14 +41534,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
+      <selection activeCell="I914" sqref="I914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.28515625" customWidth="1"/>
+    <col min="8" max="8" width="65.7109375" customWidth="1"/>
+    <col min="9" max="9" width="48" customWidth="1"/>
     <col min="10" max="10" width="138" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41579,7 +41605,7 @@
         <v>4356</v>
       </c>
       <c r="J2" t="s">
-        <v>4196</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -55889,7 +55915,7 @@
         <v>4214</v>
       </c>
       <c r="I479" t="s">
-        <v>4364</v>
+        <v>4404</v>
       </c>
       <c r="J479" t="s">
         <v>4214</v>
@@ -56689,6 +56715,9 @@
       <c r="H506" t="s">
         <v>4268</v>
       </c>
+      <c r="I506" t="s">
+        <v>4406</v>
+      </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
@@ -57557,6 +57586,9 @@
       <c r="H535" t="s">
         <v>4319</v>
       </c>
+      <c r="I535" t="s">
+        <v>4407</v>
+      </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
@@ -68872,6 +68904,9 @@
       <c r="H914" t="s">
         <v>4303</v>
       </c>
+      <c r="I914" t="s">
+        <v>4409</v>
+      </c>
     </row>
     <row r="915" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
@@ -69080,6 +69115,9 @@
       </c>
       <c r="H921" t="s">
         <v>4191</v>
+      </c>
+      <c r="I921" t="s">
+        <v>4408</v>
       </c>
     </row>
     <row r="922" spans="1:10" x14ac:dyDescent="0.25">
